--- a/assets/admin/example_files/data_template.xlsx
+++ b/assets/admin/example_files/data_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacDuck/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacDuck/Documents/Projects/GitHub/FecobiomeInitiative/DjangoFI/static/admin/example_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94D08945-58BD-7046-8715-4CEBCFDE10BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{956C138A-A13C-8E4E-B3E6-ABD1ACCD65EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000"/>
+    <workbookView xWindow="-30560" yWindow="-640" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_template_file (3)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>run_accession</t>
   </si>
@@ -68,12 +68,18 @@
   </si>
   <si>
     <t>sample_date_dmy</t>
+  </si>
+  <si>
+    <t>biodata</t>
+  </si>
+  <si>
+    <t>FBP_detected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -907,62 +913,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
